--- a/WpfApplication1/staticdata/sampleTemplate.xlsx
+++ b/WpfApplication1/staticdata/sampleTemplate.xlsx
@@ -5,45 +5,61 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\github\xl-template-reader\template-reader\template-reader\staticdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\github\ZambiaDataManager\WpfApplication1\staticdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="927" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" tabRatio="927" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover1" sheetId="20" r:id="rId1"/>
-    <sheet name="STI" sheetId="3" r:id="rId2"/>
-    <sheet name="TB" sheetId="4" r:id="rId3"/>
-    <sheet name="ART" sheetId="5" r:id="rId4"/>
-    <sheet name="PMTCT" sheetId="6" r:id="rId5"/>
-    <sheet name="Family Planning" sheetId="25" r:id="rId6"/>
-    <sheet name="Prevention - PWP" sheetId="27" r:id="rId7"/>
-    <sheet name="Clinical Care" sheetId="7" r:id="rId8"/>
-    <sheet name="Prevention-MC" sheetId="23" r:id="rId9"/>
+    <sheet name="HTC" sheetId="28" r:id="rId2"/>
+    <sheet name="CECAP" sheetId="29" r:id="rId3"/>
+    <sheet name="STI" sheetId="3" r:id="rId4"/>
+    <sheet name="TB" sheetId="4" r:id="rId5"/>
+    <sheet name="ART" sheetId="5" r:id="rId6"/>
+    <sheet name="PMTCT" sheetId="6" r:id="rId7"/>
+    <sheet name="Family Planning" sheetId="25" r:id="rId8"/>
+    <sheet name="Prevention - PWP" sheetId="27" r:id="rId9"/>
+    <sheet name="Clinical Care" sheetId="7" r:id="rId10"/>
+    <sheet name="Prevention-MC" sheetId="23" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ART!$A$1:$J$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Clinical Care'!$A$1:$K$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">PMTCT!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Prevention - PWP'!$A$1:$D$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Prevention-MC'!$A$1:$K$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">STI!$A$1:$K$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">TB!$A$1:$J$23</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">ART!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Clinical Care'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Family Planning'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">PMTCT!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'Prevention-MC'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">STI!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">TB!$1:$1</definedName>
+    <definedName name="allfacilities" localSheetId="2">[1]ReferenceData!$E$2:$E$17</definedName>
+    <definedName name="allfacilities">[2]ReferenceData!$E$2:$E$17</definedName>
+    <definedName name="facilitylist" localSheetId="2">[1]ReferenceData!#REF!</definedName>
+    <definedName name="facilitylist">[2]ReferenceData!#REF!</definedName>
+    <definedName name="FacName">[3]Facilities!$E$2:$E$42</definedName>
+    <definedName name="months" localSheetId="2">[1]ReferenceData!$L$2:$L$14</definedName>
+    <definedName name="months">[2]ReferenceData!$L$2:$L$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ART!$A$1:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Clinical Care'!$A$1:$K$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">PMTCT!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Prevention - PWP'!$A$1:$D$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'Prevention-MC'!$A$1:$K$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">STI!$A$1:$K$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">TB!$A$1:$J$23</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">ART!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'Clinical Care'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Family Planning'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">PMTCT!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'Prevention-MC'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">STI!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">TB!$1:$1</definedName>
+    <definedName name="years" localSheetId="2">[1]ReferenceData!$H$6:$H$10</definedName>
+    <definedName name="years">[2]ReferenceData!$H$6:$H$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="463">
   <si>
     <t>Name of Health Facility</t>
   </si>
@@ -1340,12 +1356,293 @@
   <si>
     <t>PMTCT19_a</t>
   </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
+    <t>Total Males</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>Total Females</t>
+  </si>
+  <si>
+    <t>Total Number</t>
+  </si>
+  <si>
+    <t>CT1</t>
+  </si>
+  <si>
+    <t>Total No. of clients who were counselled and tested for HIV and received their test results  at the facility Including PITC this month.</t>
+  </si>
+  <si>
+    <t>CT1a.1</t>
+  </si>
+  <si>
+    <r>
+      <t>No. of clients who received counseling and testing (CT) services for HIV and received their test results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> this month</t>
+    </r>
+  </si>
+  <si>
+    <t>CT1b</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> clients who </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tested  HIV positive for HIV and collected test results.</t>
+    </r>
+  </si>
+  <si>
+    <t>CT1b.1</t>
+  </si>
+  <si>
+    <t>Number of clients who tested as couple and collected test results at this facility this month.</t>
+  </si>
+  <si>
+    <t>CT1c</t>
+  </si>
+  <si>
+    <t>Numbner of HIV DISCONDANT couples who received test results. (Count Females only).</t>
+  </si>
+  <si>
+    <t>CT1c.1</t>
+  </si>
+  <si>
+    <t>Number of clients who were re-tested for HIV and received there results</t>
+  </si>
+  <si>
+    <t>CT1d</t>
+  </si>
+  <si>
+    <t>Number of clients who re-tested and tested positive for HIV.</t>
+  </si>
+  <si>
+    <t>CT.e</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Numbner of clients who Tested for HIV through PITC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total of PMTCT,STI,TB,MC,CECAP,FP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>CT.e.1</t>
+  </si>
+  <si>
+    <t>Number of clients who tested for HIV through PMTCT</t>
+  </si>
+  <si>
+    <t>CT.e.2</t>
+  </si>
+  <si>
+    <t>Number of clients who tested for HIV through TB</t>
+  </si>
+  <si>
+    <t>CT.e.3</t>
+  </si>
+  <si>
+    <t>Number of clients who tested for HIV through STI</t>
+  </si>
+  <si>
+    <t>CT.e.4</t>
+  </si>
+  <si>
+    <t>Number of clients who tested for HIV through FP</t>
+  </si>
+  <si>
+    <t>CT.e.5</t>
+  </si>
+  <si>
+    <t>Number of clients who tested for HIV through CECAP</t>
+  </si>
+  <si>
+    <t>CT.e.6</t>
+  </si>
+  <si>
+    <t>Number of clients who tested for HIV through VMMC</t>
+  </si>
+  <si>
+    <t>CT.e.7</t>
+  </si>
+  <si>
+    <t>Number of Clients who tested positive from PITC</t>
+  </si>
+  <si>
+    <t>CT.f</t>
+  </si>
+  <si>
+    <t>Total number of clients referred for Pre ART Care Services this Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30-39</t>
+  </si>
+  <si>
+    <t>40-49</t>
+  </si>
+  <si>
+    <t>Number of clients who received a VIA screening (Total)</t>
+  </si>
+  <si>
+    <t>Number of  new women screened using VIA (New)</t>
+  </si>
+  <si>
+    <t>Number of clients who had HIV test done and received results (during screening) this month</t>
+  </si>
+  <si>
+    <t>Number of New women screened using VIA and tested for HIV</t>
+  </si>
+  <si>
+    <t>Total Number of women screen for VIA with Positive HIV test result.</t>
+  </si>
+  <si>
+    <t>Number of clients with NEGATIVE VIA result</t>
+  </si>
+  <si>
+    <t>Number of clients with POSITIVE VIA result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of clients with VIA today AND cryotherapy performed today. (SVA) </t>
+  </si>
+  <si>
+    <t>Number of clients with previously postponed cryotherapy performed today</t>
+  </si>
+  <si>
+    <t>Number of clients with VIA today AND cryotherapy postponed</t>
+  </si>
+  <si>
+    <t>Number of clients referred for large lesions</t>
+  </si>
+  <si>
+    <t>Number of clients with suspected cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of clients with a post-treatment complication </t>
+  </si>
+  <si>
+    <t>Number new women treated with cryotherapy</t>
+  </si>
+  <si>
+    <t>Total number of unique clients seen this month</t>
+  </si>
+  <si>
+    <t>CECAP 1</t>
+  </si>
+  <si>
+    <t>CECAP 2</t>
+  </si>
+  <si>
+    <t>CECAP 3</t>
+  </si>
+  <si>
+    <t>CECAP 4</t>
+  </si>
+  <si>
+    <t>CECAP 5</t>
+  </si>
+  <si>
+    <t>CECAP 6</t>
+  </si>
+  <si>
+    <t>CECAP 7</t>
+  </si>
+  <si>
+    <t>CECAP 8</t>
+  </si>
+  <si>
+    <t>CECAP 9</t>
+  </si>
+  <si>
+    <t>CECAP 10</t>
+  </si>
+  <si>
+    <t>CECAP 11</t>
+  </si>
+  <si>
+    <t>CECAP 12</t>
+  </si>
+  <si>
+    <t>CECAP 13</t>
+  </si>
+  <si>
+    <t>CECAP 14</t>
+  </si>
+  <si>
+    <t>CECAP 15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,6 +1843,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1620,7 +1937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2081,13 +2398,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2461,6 +2932,79 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2900,6 +3444,559 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover1"/>
+      <sheetName val="HTC"/>
+      <sheetName val="CECAP"/>
+      <sheetName val="STI"/>
+      <sheetName val="TB"/>
+      <sheetName val="ART"/>
+      <sheetName val="PMTCT"/>
+      <sheetName val="Family Planning"/>
+      <sheetName val="Prevention - PWP"/>
+      <sheetName val="Clinical Care"/>
+      <sheetName val="Prevention-MC"/>
+      <sheetName val="Narrative"/>
+      <sheetName val="Appendix 1"/>
+      <sheetName val="ReferenceData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13">
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>Central-Mumbwa-ZAF Mumbwa Sick Quarters&gt;1050270</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>January</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>Central-Mumbwa-ZNS Kalenda Camp&gt;1050280</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>February</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>Eastern-Chipata-Gondar Camp Hospital&gt;3030370</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>March</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6" t="str">
+            <v>Eastern-Chipata-ZNS Chiwoko Camp&gt;3030410</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>April</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>Eastern-Katete-ZNS Mtetezi Camp&gt;3040130</v>
+          </cell>
+          <cell r="H7">
+            <v>2014</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>May</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8" t="str">
+            <v>Eastern-Lundazi-ZNS Lumezi&gt;3030XX0</v>
+          </cell>
+          <cell r="H8">
+            <v>2015</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>June</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9" t="str">
+            <v>Eastern-Nyimba-ZNS Nyimba Camp&gt;3070AA0</v>
+          </cell>
+          <cell r="H9">
+            <v>2016</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>July</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>Lusaka-Chongwe-ZNS Chongwe Camp&gt;5010AC0</v>
+          </cell>
+          <cell r="H10">
+            <v>2017</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>August</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>Lusaka-Kafue-ZNS Kafue Camp&gt;5020180</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>September</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>Lusaka-Lusaka-Arakan Camp Hospital&gt;5040GI0</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>October</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13" t="str">
+            <v>Southern-Choma-ZNS Choma Camp&gt;8010310</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>November</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14" t="str">
+            <v>Southern-Livingstone-Army School of Ordinance&gt;8060XX0</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>December</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15" t="str">
+            <v>Southern-Livingstone-ZAF Livingstone Sick Quarters&gt;8060AC0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16" t="str">
+            <v>Western-Kaoma-Luena Barracks Camp Hospital&gt;9020240</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17" t="str">
+            <v>Western-Kaoma-ZNS Mangango Camp&gt;9020150</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover1"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="HTC"/>
+      <sheetName val="CECAP"/>
+      <sheetName val="STI"/>
+      <sheetName val="TB"/>
+      <sheetName val="ART"/>
+      <sheetName val="PMTCT"/>
+      <sheetName val="Family Planning"/>
+      <sheetName val="Prevention - PWP"/>
+      <sheetName val="Clinical Care"/>
+      <sheetName val="Prevention-MC"/>
+      <sheetName val="Narrative"/>
+      <sheetName val="Appendix 1"/>
+      <sheetName val="ReferenceData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14">
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>Central-Mumbwa-ZAF Mumbwa Sick Quarters&gt;1050270</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>January</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>Central-Mumbwa-ZNS Kalenda Camp&gt;1050280</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>February</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>Eastern-Chipata-Gondar Camp Hospital&gt;3030370</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>March</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6" t="str">
+            <v>Eastern-Chipata-ZNS Chiwoko Camp&gt;3030410</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>April</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>Eastern-Katete-ZNS Mtetezi Camp&gt;3040130</v>
+          </cell>
+          <cell r="H7">
+            <v>2014</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>May</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8" t="str">
+            <v>Eastern-Lundazi-ZNS Lumezi&gt;3030XX0</v>
+          </cell>
+          <cell r="H8">
+            <v>2015</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>June</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9" t="str">
+            <v>Eastern-Nyimba-ZNS Nyimba Camp&gt;3070AA0</v>
+          </cell>
+          <cell r="H9">
+            <v>2016</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>July</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>Lusaka-Chongwe-ZNS Chongwe Camp&gt;5010AC0</v>
+          </cell>
+          <cell r="H10">
+            <v>2017</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>August</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>Lusaka-Kafue-ZNS Kafue Camp&gt;5020180</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>September</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>Lusaka-Lusaka-Arakan Camp Hospital&gt;5040GI0</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>October</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13" t="str">
+            <v>Southern-Choma-ZNS Choma Camp&gt;8010310</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>November</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14" t="str">
+            <v>Southern-Livingstone-Army School of Ordinance&gt;8060XX0</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>December</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15" t="str">
+            <v>Southern-Livingstone-ZAF Livingstone Sick Quarters&gt;8060AC0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16" t="str">
+            <v>Western-Kaoma-Luena Barracks Camp Hospital&gt;9020240</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17" t="str">
+            <v>Western-Kaoma-ZNS Mangango Camp&gt;9020150</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MC"/>
+      <sheetName val="VALIDATIONS"/>
+      <sheetName val="Facilities"/>
+      <sheetName val="AllData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>Central-Kabwe Urban-Kabwe General Hospital&gt;1020020</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>Copperbelt-Kitwe-Kitwe Central Hospital&gt;2040010</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>Copperbelt-Ndola-Ndola Centra Hospital&gt;2100020</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6" t="str">
+            <v>Eastern-Chadiza-Chadiza HC&gt;3010110</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>Eastern-Chipata-Chipata General Hospital&gt;3030010</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8" t="str">
+            <v>Eastern-Chipata-Chiwoko&gt;3030410</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9" t="str">
+            <v>Eastern-Chipata-Mwami Hospital&gt;3030020</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>Eastern-Mambwe-Kamoto Mission Hospital&gt;3060010</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>Eastern-Mambwe-Masumba&gt;3060120</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>Eastern-Petauke-Petauke District Hospital&gt;3080010</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13" t="str">
+            <v>Luapula-Mansa-Buntungwa RHC&gt;4030110</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14" t="str">
+            <v>Luapula-Mansa-Chembe RHC&gt;4030130</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15" t="str">
+            <v>Luapula-Mansa-Mabumba RHC&gt;4030250</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16" t="str">
+            <v>Luapula-Mansa-Mansa General Hospital&gt;4030010</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17" t="str">
+            <v>Luapula-Nchelenge-St. Pauls Hospital&gt;4060010</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18" t="str">
+            <v>Lusaka-Chilanga-Chilanga&gt;5020130</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19" t="str">
+            <v>Lusaka-Chirundu-Lusitu&gt;8110110</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20" t="str">
+            <v>Lusaka-Kafue-Nangongwe OPD/Maternity&gt;5020260</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21" t="str">
+            <v>Lusaka-Lusaka-Chainama Hospital&gt;5040010</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22" t="str">
+            <v>Lusaka-Lusaka-Matero Reference&gt;5040270</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23" t="str">
+            <v>Northern-Kasama-Kasama General Hospital&gt;6050010</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24" t="str">
+            <v>Northern-Mpika-Tazara Clinic&gt;6080240</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25" t="str">
+            <v>NorthWestern-Kabompo-Loloma Mission Hospital&gt;7020020</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26" t="str">
+            <v>NorthWestern-Kasempa-Mukinge Mission Hospital&gt;7030010</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27" t="str">
+            <v>NorthWestern-Solwezi-Solwezi General Hospital&gt;7060008</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28" t="str">
+            <v>Southern-Livingstone-Dambwa North&gt;8060040</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29" t="str">
+            <v>Southern-Livingstone-Linda&gt;8060130</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30" t="str">
+            <v>Southern-Livingstone-Livingstone Airport&gt;8060190</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31" t="str">
+            <v>Southern-Livingstone-Livingstone Hospital&gt;8060010</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32" t="str">
+            <v>Southern-Livingstone-Mosi-oa-tunya&gt;8060160</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33" t="str">
+            <v>Southern-Livingstone-Police&gt;8060170</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34" t="str">
+            <v>Southern-Livingstone-Prisons&gt;8060180</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35" t="str">
+            <v>Southern-Mazabuka-Kaonga&gt;8070220</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36" t="str">
+            <v>Southern-Mazabuka-Mazabuka Hospital&gt;8070010</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37" t="str">
+            <v>Southern-Mazabuka-Mugoto&gt;8070270</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38" t="str">
+            <v>Southern-Mazabuka-Mukuyu&gt;8070280</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39" t="str">
+            <v>Southern-Monze-Monze Urban Clinic&gt;8080300</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40" t="str">
+            <v>Southern-Namwala-Namwala Hospital&gt;8090010</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41" t="str">
+            <v>Southern-Siavonga-Siavonga Hospital&gt;8110010</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42" t="str">
+            <v>Western-Mongu-Lewanika General Hospital&gt;9040010</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3198,147 +4295,147 @@
       <selection activeCell="C25" sqref="C25:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="51.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="125"/>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="152"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="152"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="152"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="151" t="s">
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="128" t="s">
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+    </row>
+    <row r="12" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="135" t="s">
+      <c r="C12" s="189"/>
+      <c r="D12" s="162" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="137"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="164"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -3346,205 +4443,205 @@
         <v>140</v>
       </c>
       <c r="C13" s="26"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="137"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="162"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="164"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="182"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="164"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="182"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="164"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="149">
+      <c r="C16" s="182"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="164"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="176">
         <v>6</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="140"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="150"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="143"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="191"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="167"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="177"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="170"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="94"/>
       <c r="B19" s="95" t="s">
         <v>261</v>
       </c>
       <c r="C19" s="96"/>
-      <c r="D19" s="170">
+      <c r="D19" s="197">
         <v>2016</v>
       </c>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="172"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="199"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="146" t="s">
+      <c r="C20" s="180"/>
+      <c r="D20" s="173" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="148"/>
-    </row>
-    <row r="21" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="175"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>8</v>
       </c>
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="148"/>
-    </row>
-    <row r="22" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="180"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="175"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="148"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="149">
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="175"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="176">
         <v>10</v>
       </c>
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="186" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="129">
+      <c r="C23" s="156">
         <v>988332299</v>
       </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="131"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="134"/>
-    </row>
-    <row r="25" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="158"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="177"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="161"/>
+    </row>
+    <row r="25" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>11</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169"/>
-    </row>
-    <row r="26" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="194"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="196"/>
+    </row>
+    <row r="26" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>12</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="158"/>
-    </row>
-    <row r="27" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="183"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="185"/>
+    </row>
+    <row r="27" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>13</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="158"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="183"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="185"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3595,7 +4692,2428 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="8.109375" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="39" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="49" t="str">
+        <f t="shared" ref="C2:K2" si="0">TRIM(C1)</f>
+        <v>&lt;1</v>
+      </c>
+      <c r="D2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>1 to 4</v>
+      </c>
+      <c r="E2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>5 to 9</v>
+      </c>
+      <c r="F2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>10 to 14</v>
+      </c>
+      <c r="G2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>15 to 19</v>
+      </c>
+      <c r="H2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>20 to 24</v>
+      </c>
+      <c r="I2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>25 to 49</v>
+      </c>
+      <c r="J2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>50+</v>
+      </c>
+      <c r="K2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" s="39" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:11" s="43" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" s="66" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+    </row>
+    <row r="18" spans="1:10" s="66" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="47"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="47"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="47"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="47"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="47"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="47"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="47"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="47"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="47"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="47"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="47"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="47"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="47"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="47"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="47"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="47"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="47"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="47"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="47"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="47"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="47"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="47"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="47"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="47"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="47"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="47"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="47"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="47"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="47"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="47"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="47"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="47"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="47"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="47"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="47"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="47"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="47"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="47"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="47"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="47"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="47"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="47"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="47"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="47"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="47"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="47"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="47"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="47"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="47"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="47"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="47"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="47"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="47"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="47"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="47"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;CZAMBIA DEFENCE FORCE MEDICAL SERVICES 
+HIV/AIDS Monthly Activity Report Form </oddHeader>
+    <oddFooter>&amp;LRevised November 2014</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="2" max="2" width="34.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="8.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="49" t="str">
+        <f t="shared" ref="C2:K2" si="0">TRIM(C1)</f>
+        <v>&lt; 1</v>
+      </c>
+      <c r="D2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4</v>
+      </c>
+      <c r="E2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>5-9</v>
+      </c>
+      <c r="F2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>10-14</v>
+      </c>
+      <c r="G2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>15-19</v>
+      </c>
+      <c r="H2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>20-24</v>
+      </c>
+      <c r="I2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>25-29</v>
+      </c>
+      <c r="J2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>30-49</v>
+      </c>
+      <c r="K2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>50+</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="123" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="1:16" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="123" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:16" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="123" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:16" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="123" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:16" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="123" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:16" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="123" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="123" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="1:16" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="123" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:16" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="123" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" s="124" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:16" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="124" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="123" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+    </row>
+    <row r="15" spans="1:16" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="123" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="124" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:16" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="124" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="1:2" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="123" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="124" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="123" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="124" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="124" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;CZAMBIA DEFENCE FORCE MEDICAL SERVICES 
+HIV/AIDS Monthly Activity Report Form </oddHeader>
+    <oddFooter>&amp;LRevised November 2014</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="140" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="125" customFormat="1" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142" t="s">
+        <v>392</v>
+      </c>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143" t="s">
+        <v>393</v>
+      </c>
+      <c r="N1" s="142" t="s">
+        <v>394</v>
+      </c>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+    </row>
+    <row r="2" spans="1:23" s="125" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="127" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" s="128" t="s">
+        <v>357</v>
+      </c>
+      <c r="H2" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="143"/>
+      <c r="N2" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="127" t="s">
+        <v>356</v>
+      </c>
+      <c r="P2" s="128" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q2" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="143" t="s">
+        <v>395</v>
+      </c>
+      <c r="W2" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="130" customFormat="1" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="129" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145" t="str">
+        <f>TRIM(E2)</f>
+        <v>&lt;1</v>
+      </c>
+      <c r="F3" s="145" t="str">
+        <f t="shared" ref="F3:L3" si="0">TRIM(F2)</f>
+        <v>1-4</v>
+      </c>
+      <c r="G3" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>5-9</v>
+      </c>
+      <c r="H3" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>10-14</v>
+      </c>
+      <c r="I3" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>15-19</v>
+      </c>
+      <c r="J3" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>20-24</v>
+      </c>
+      <c r="K3" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>25-49</v>
+      </c>
+      <c r="L3" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>50+</v>
+      </c>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+    </row>
+    <row r="4" spans="1:23" s="130" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="145" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145" t="str">
+        <f>""""&amp;E3&amp;""","</f>
+        <v>"&lt;1",</v>
+      </c>
+      <c r="F4" s="145" t="str">
+        <f>""""&amp;F3&amp;""","</f>
+        <v>"1-4",</v>
+      </c>
+      <c r="G4" s="145" t="str">
+        <f>""""&amp;G3&amp;""","</f>
+        <v>"5-9",</v>
+      </c>
+      <c r="H4" s="145" t="str">
+        <f>""""&amp;H3&amp;""","</f>
+        <v>"10-14",</v>
+      </c>
+      <c r="I4" s="145" t="str">
+        <f>""""&amp;I3&amp;""","</f>
+        <v>"15-19",</v>
+      </c>
+      <c r="J4" s="145" t="str">
+        <f>""""&amp;J3&amp;""","</f>
+        <v>"20-24",</v>
+      </c>
+      <c r="K4" s="145" t="str">
+        <f>""""&amp;K3&amp;""","</f>
+        <v>"25-49",</v>
+      </c>
+      <c r="L4" s="145" t="str">
+        <f>""""&amp;L3&amp;""","</f>
+        <v>"50+",</v>
+      </c>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+    </row>
+    <row r="5" spans="1:23" s="130" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="131" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="145" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+    </row>
+    <row r="6" spans="1:23" s="130" customFormat="1" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="131" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="145" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+    </row>
+    <row r="7" spans="1:23" s="130" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="131" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="145" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+      <c r="R7" s="145"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
+      <c r="W7" s="145"/>
+    </row>
+    <row r="8" spans="1:23" s="130" customFormat="1" ht="34.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="131" t="s">
+        <v>407</v>
+      </c>
+      <c r="B8" s="145" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+    </row>
+    <row r="9" spans="1:23" s="130" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="131" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="145" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+    </row>
+    <row r="10" spans="1:23" s="130" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="131" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="146" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+    </row>
+    <row r="11" spans="1:23" s="130" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="145" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+    </row>
+    <row r="12" spans="1:23" s="130" customFormat="1" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="129" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="145" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+    </row>
+    <row r="13" spans="1:23" s="130" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="129" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+    </row>
+    <row r="14" spans="1:23" s="130" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="131" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="145" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+    </row>
+    <row r="15" spans="1:23" s="130" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="129" t="s">
+        <v>421</v>
+      </c>
+      <c r="B15" s="145" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+    </row>
+    <row r="16" spans="1:23" s="130" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="131" t="s">
+        <v>423</v>
+      </c>
+      <c r="B16" s="145" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="145"/>
+    </row>
+    <row r="17" spans="1:23" s="130" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="131" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" s="151" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+    </row>
+    <row r="18" spans="1:23" s="130" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="129" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" s="145" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+    </row>
+    <row r="19" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data Entry" prompt="Please Enter a digit!!" sqref="WVU3:WWE18 JB3:JH12 SX3:TD12 ACT3:ACZ12 AMP3:AMV12 AWL3:AWR12 BGH3:BGN12 BQD3:BQJ12 BZZ3:CAF12 CJV3:CKB12 CTR3:CTX12 DDN3:DDT12 DNJ3:DNP12 DXF3:DXL12 EHB3:EHH12 EQX3:ERD12 FAT3:FAZ12 FKP3:FKV12 FUL3:FUR12 GEH3:GEN12 GOD3:GOJ12 GXZ3:GYF12 HHV3:HIB12 HRR3:HRX12 IBN3:IBT12 ILJ3:ILP12 IVF3:IVL12 JFB3:JFH12 JOX3:JPD12 JYT3:JYZ12 KIP3:KIV12 KSL3:KSR12 LCH3:LCN12 LMD3:LMJ12 LVZ3:LWF12 MFV3:MGB12 MPR3:MPX12 MZN3:MZT12 NJJ3:NJP12 NTF3:NTL12 ODB3:ODH12 OMX3:OND12 OWT3:OWZ12 PGP3:PGV12 PQL3:PQR12 QAH3:QAN12 QKD3:QKJ12 QTZ3:QUF12 RDV3:REB12 RNR3:RNX12 RXN3:RXT12 SHJ3:SHP12 SRF3:SRL12 TBB3:TBH12 TKX3:TLD12 TUT3:TUZ12 UEP3:UEV12 UOL3:UOR12 UYH3:UYN12 VID3:VIJ12 VRZ3:VSF12 WBV3:WCB12 WLR3:WLX12 WVN3:WVT12 JI3:JS18 TE3:TO18 ADA3:ADK18 AMW3:ANG18 AWS3:AXC18 BGO3:BGY18 BQK3:BQU18 CAG3:CAQ18 CKC3:CKM18 CTY3:CUI18 DDU3:DEE18 DNQ3:DOA18 DXM3:DXW18 EHI3:EHS18 ERE3:ERO18 FBA3:FBK18 FKW3:FLG18 FUS3:FVC18 GEO3:GEY18 GOK3:GOU18 GYG3:GYQ18 HIC3:HIM18 HRY3:HSI18 IBU3:ICE18 ILQ3:IMA18 IVM3:IVW18 JFI3:JFS18 JPE3:JPO18 JZA3:JZK18 KIW3:KJG18 KSS3:KTC18 LCO3:LCY18 LMK3:LMU18 LWG3:LWQ18 MGC3:MGM18 MPY3:MQI18 MZU3:NAE18 NJQ3:NKA18 NTM3:NTW18 ODI3:ODS18 ONE3:ONO18 OXA3:OXK18 PGW3:PHG18 PQS3:PRC18 QAO3:QAY18 QKK3:QKU18 QUG3:QUQ18 REC3:REM18 RNY3:ROI18 RXU3:RYE18 SHQ3:SIA18 SRM3:SRW18 TBI3:TBS18 TLE3:TLO18 TVA3:TVK18 UEW3:UFG18 UOS3:UPC18 UYO3:UYY18 VIK3:VIU18 VSG3:VSQ18 WCC3:WCM18 WLY3:WMI18">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB13:JH18 JA3:JA18 SW3:SW18 ACS3:ACS18 AMO3:AMO18 AWK3:AWK18 BGG3:BGG18 BQC3:BQC18 BZY3:BZY18 CJU3:CJU18 CTQ3:CTQ18 DDM3:DDM18 DNI3:DNI18 DXE3:DXE18 EHA3:EHA18 EQW3:EQW18 FAS3:FAS18 FKO3:FKO18 FUK3:FUK18 GEG3:GEG18 GOC3:GOC18 GXY3:GXY18 HHU3:HHU18 HRQ3:HRQ18 IBM3:IBM18 ILI3:ILI18 IVE3:IVE18 JFA3:JFA18 JOW3:JOW18 JYS3:JYS18 KIO3:KIO18 KSK3:KSK18 LCG3:LCG18 LMC3:LMC18 LVY3:LVY18 MFU3:MFU18 MPQ3:MPQ18 MZM3:MZM18 NJI3:NJI18 NTE3:NTE18 ODA3:ODA18 OMW3:OMW18 OWS3:OWS18 PGO3:PGO18 PQK3:PQK18 QAG3:QAG18 QKC3:QKC18 QTY3:QTY18 RDU3:RDU18 RNQ3:RNQ18 RXM3:RXM18 SHI3:SHI18 SRE3:SRE18 TBA3:TBA18 TKW3:TKW18 TUS3:TUS18 UEO3:UEO18 UOK3:UOK18 UYG3:UYG18 VIC3:VIC18 VRY3:VRY18 WBU3:WBU18 WLQ3:WLQ18 WVM3:WVM18 WVN13:WVT18 WLR13:WLX18 WBV13:WCB18 VRZ13:VSF18 VID13:VIJ18 UYH13:UYN18 UOL13:UOR18 UEP13:UEV18 TUT13:TUZ18 TKX13:TLD18 TBB13:TBH18 SRF13:SRL18 SHJ13:SHP18 RXN13:RXT18 RNR13:RNX18 RDV13:REB18 QTZ13:QUF18 QKD13:QKJ18 QAH13:QAN18 PQL13:PQR18 PGP13:PGV18 OWT13:OWZ18 OMX13:OND18 ODB13:ODH18 NTF13:NTL18 NJJ13:NJP18 MZN13:MZT18 MPR13:MPX18 MFV13:MGB18 LVZ13:LWF18 LMD13:LMJ18 LCH13:LCN18 KSL13:KSR18 KIP13:KIV18 JYT13:JYZ18 JOX13:JPD18 JFB13:JFH18 IVF13:IVL18 ILJ13:ILP18 IBN13:IBT18 HRR13:HRX18 HHV13:HIB18 GXZ13:GYF18 GOD13:GOJ18 GEH13:GEN18 FUL13:FUR18 FKP13:FKV18 FAT13:FAZ18 EQX13:ERD18 EHB13:EHH18 DXF13:DXL18 DNJ13:DNP18 DDN13:DDT18 CTR13:CTX18 CJV13:CKB18 BZZ13:CAF18 BQD13:BQJ18 BGH13:BGN18 AWL13:AWR18 AMP13:AMV18 ACT13:ACZ18 SX13:TD18">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.77734375" style="140" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="135"/>
+      <c r="B1" s="136" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="132" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="133" t="s">
+        <v>430</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>431</v>
+      </c>
+      <c r="G1" s="133" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="134" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="137" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" t="str">
+        <f>TRIM(C1)</f>
+        <v>&lt;20</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:H2" si="0">TRIM(D1)</f>
+        <v>20-24</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v>25-29</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="0"/>
+        <v>30-39</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>40-49</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="0"/>
+        <v>50+</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="145" t="str">
+        <f>""""&amp;C2&amp;""","</f>
+        <v>"&lt;20",</v>
+      </c>
+      <c r="D3" s="145" t="str">
+        <f t="shared" ref="D3:H3" si="1">""""&amp;D2&amp;""","</f>
+        <v>"20-24",</v>
+      </c>
+      <c r="E3" s="145" t="str">
+        <f t="shared" si="1"/>
+        <v>"25-29",</v>
+      </c>
+      <c r="F3" s="145" t="str">
+        <f t="shared" si="1"/>
+        <v>"30-39",</v>
+      </c>
+      <c r="G3" s="145" t="str">
+        <f t="shared" si="1"/>
+        <v>"40-49",</v>
+      </c>
+      <c r="H3" s="145" t="str">
+        <f t="shared" si="1"/>
+        <v>"50+",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="138" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="138" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="138" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="138" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="138" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="138" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="138" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="139" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3607,19 +7125,19 @@
       <selection activeCell="A11" sqref="A11:H12"/>
       <selection pane="topRight" activeCell="A11" sqref="A11:H12"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:H12"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" style="49" customWidth="1"/>
-    <col min="3" max="9" width="12.5703125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="49" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="5.88671875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" style="49" customWidth="1"/>
+    <col min="3" max="9" width="12.5546875" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
         <v>266</v>
       </c>
@@ -3654,7 +7172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>30</v>
       </c>
@@ -3698,7 +7216,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>31</v>
       </c>
@@ -3706,7 +7224,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>32</v>
       </c>
@@ -3714,7 +7232,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>33</v>
       </c>
@@ -3722,7 +7240,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>74</v>
       </c>
@@ -3730,7 +7248,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>34</v>
       </c>
@@ -3738,7 +7256,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>35</v>
       </c>
@@ -3746,7 +7264,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +7272,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3767,7 +7285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -3779,25 +7297,25 @@
       <selection activeCell="A11" sqref="A11:H12"/>
       <selection pane="topRight" activeCell="A11" sqref="A11:H12"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:H12"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:J2"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="6" style="10" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="10" customWidth="1"/>
     <col min="10" max="10" width="6" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="10"/>
+    <col min="11" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>267</v>
       </c>
@@ -3829,7 +7347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>37</v>
       </c>
@@ -3869,7 +7387,7 @@
         <v>50+</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
@@ -3877,7 +7395,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="87" t="s">
         <v>39</v>
       </c>
@@ -3885,7 +7403,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87" t="s">
         <v>40</v>
       </c>
@@ -3893,7 +7411,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="87" t="s">
         <v>257</v>
       </c>
@@ -3901,7 +7419,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="87" t="s">
         <v>258</v>
       </c>
@@ -3909,7 +7427,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="88" t="s">
         <v>259</v>
       </c>
@@ -3917,7 +7435,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
         <v>114</v>
       </c>
@@ -3925,7 +7443,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>214</v>
       </c>
@@ -3933,7 +7451,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>215</v>
       </c>
@@ -3941,7 +7459,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>98</v>
       </c>
@@ -3949,7 +7467,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42" t="s">
         <v>41</v>
       </c>
@@ -3957,7 +7475,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="42" t="s">
         <v>102</v>
       </c>
@@ -3965,7 +7483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="42" t="s">
         <v>103</v>
       </c>
@@ -3973,7 +7491,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
         <v>104</v>
       </c>
@@ -3981,7 +7499,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42" t="s">
         <v>105</v>
       </c>
@@ -3989,7 +7507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="42" t="s">
         <v>260</v>
       </c>
@@ -3997,7 +7515,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="42" t="s">
         <v>110</v>
       </c>
@@ -4005,7 +7523,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
         <v>111</v>
       </c>
@@ -4013,7 +7531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>112</v>
       </c>
@@ -4021,7 +7539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
         <v>182</v>
       </c>
@@ -4029,7 +7547,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>216</v>
       </c>
@@ -4049,7 +7567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -4064,18 +7582,18 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="8" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5" max="9" width="7.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="4" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5" max="9" width="7.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>266</v>
       </c>
@@ -4107,7 +7625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>42</v>
       </c>
@@ -4147,7 +7665,7 @@
         <v>50+</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>43</v>
       </c>
@@ -4163,7 +7681,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>75</v>
       </c>
@@ -4179,7 +7697,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>174</v>
       </c>
@@ -4195,7 +7713,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>44</v>
       </c>
@@ -4211,7 +7729,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
@@ -4227,7 +7745,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>175</v>
       </c>
@@ -4244,7 +7762,7 @@
       <c r="J8" s="16"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>176</v>
       </c>
@@ -4260,7 +7778,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>177</v>
       </c>
@@ -4276,7 +7794,7 @@
       <c r="I10" s="108"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>178</v>
       </c>
@@ -4292,7 +7810,7 @@
       <c r="I11" s="108"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>179</v>
       </c>
@@ -4308,7 +7826,7 @@
       <c r="I12" s="108"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>180</v>
       </c>
@@ -4324,7 +7842,7 @@
       <c r="I13" s="108"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>76</v>
       </c>
@@ -4340,7 +7858,7 @@
       <c r="I14" s="108"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>77</v>
       </c>
@@ -4356,7 +7874,7 @@
       <c r="I15" s="108"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>226</v>
       </c>
@@ -4372,7 +7890,7 @@
       <c r="I16" s="108"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>275</v>
       </c>
@@ -4388,7 +7906,7 @@
       <c r="I17" s="108"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>277</v>
       </c>
@@ -4404,7 +7922,7 @@
       <c r="I18" s="108"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>278</v>
       </c>
@@ -4424,34 +7942,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="91" zoomScaleNormal="75" zoomScaleSheetLayoutView="91" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="91" zoomScaleNormal="75" zoomScaleSheetLayoutView="91" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="53" customWidth="1"/>
     <col min="2" max="2" width="68" style="10" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="4" width="11.5546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="10" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="54" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="54" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>228</v>
       </c>
@@ -4480,7 +7998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>46</v>
       </c>
@@ -4516,7 +8034,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>217</v>
       </c>
@@ -4534,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>47</v>
       </c>
@@ -4552,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>48</v>
       </c>
@@ -4570,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>49</v>
       </c>
@@ -4588,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>89</v>
       </c>
@@ -4606,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -4624,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>51</v>
       </c>
@@ -4642,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
@@ -4660,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>87</v>
       </c>
@@ -4678,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>88</v>
       </c>
@@ -4696,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>52</v>
       </c>
@@ -4714,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>54</v>
       </c>
@@ -4729,7 +8247,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="73"/>
     </row>
-    <row r="15" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>90</v>
       </c>
@@ -4744,7 +8262,7 @@
       <c r="H15" s="56"/>
       <c r="I15" s="73"/>
     </row>
-    <row r="16" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>55</v>
       </c>
@@ -4759,7 +8277,7 @@
       <c r="H16" s="56"/>
       <c r="I16" s="73"/>
     </row>
-    <row r="17" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>56</v>
       </c>
@@ -4774,7 +8292,7 @@
       <c r="H17" s="56"/>
       <c r="I17" s="73"/>
     </row>
-    <row r="18" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>390</v>
       </c>
@@ -4789,7 +8307,7 @@
       <c r="H18" s="56"/>
       <c r="I18" s="73"/>
     </row>
-    <row r="19" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>391</v>
       </c>
@@ -4804,7 +8322,7 @@
       <c r="H19" s="56"/>
       <c r="I19" s="73"/>
     </row>
-    <row r="20" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>57</v>
       </c>
@@ -4819,7 +8337,7 @@
       <c r="H20" s="56"/>
       <c r="I20" s="73"/>
     </row>
-    <row r="21" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="71" t="s">
         <v>58</v>
       </c>
@@ -4834,7 +8352,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="73"/>
     </row>
-    <row r="22" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="82" t="s">
         <v>78</v>
       </c>
@@ -4849,7 +8367,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="73"/>
     </row>
-    <row r="23" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
         <v>59</v>
       </c>
@@ -4879,7 +8397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="82" t="s">
         <v>237</v>
       </c>
@@ -4909,7 +8427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="82" t="s">
         <v>239</v>
       </c>
@@ -4939,7 +8457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
         <v>241</v>
       </c>
@@ -4969,7 +8487,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
         <v>243</v>
       </c>
@@ -4999,7 +8517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="82" t="s">
         <v>60</v>
       </c>
@@ -5029,7 +8547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
         <v>245</v>
       </c>
@@ -5059,7 +8577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="82" t="s">
         <v>247</v>
       </c>
@@ -5089,7 +8607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="82" t="s">
         <v>249</v>
       </c>
@@ -5119,7 +8637,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="82" t="s">
         <v>91</v>
       </c>
@@ -5149,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82" t="s">
         <v>251</v>
       </c>
@@ -5178,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="82" t="s">
         <v>253</v>
       </c>
@@ -5207,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
         <v>255</v>
       </c>
@@ -5236,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
         <v>84</v>
       </c>
@@ -5253,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
         <v>166</v>
       </c>
@@ -5270,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
         <v>167</v>
       </c>
@@ -5299,7 +8817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
@@ -5308,17 +8826,17 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="58" style="31" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="24"/>
+    <col min="3" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>267</v>
       </c>
@@ -5341,7 +8859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>190</v>
       </c>
@@ -5369,33 +8887,33 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="82" t="s">
         <v>285</v>
       </c>
       <c r="B3" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82" t="s">
         <v>287</v>
       </c>
       <c r="B4" s="99" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="200"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
         <v>289</v>
       </c>
@@ -5408,7 +8926,7 @@
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="82" t="s">
         <v>291</v>
       </c>
@@ -5421,7 +8939,7 @@
       <c r="F6" s="75"/>
       <c r="G6" s="75"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="82" t="s">
         <v>293</v>
       </c>
@@ -5434,7 +8952,7 @@
       <c r="F7" s="75"/>
       <c r="G7" s="75"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="82" t="s">
         <v>295</v>
       </c>
@@ -5447,7 +8965,7 @@
       <c r="F8" s="85"/>
       <c r="G8" s="85"/>
     </row>
-    <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="82" t="s">
         <v>297</v>
       </c>
@@ -5460,7 +8978,7 @@
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="82" t="s">
         <v>299</v>
       </c>
@@ -5473,7 +8991,7 @@
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="82" t="s">
         <v>301</v>
       </c>
@@ -5486,7 +9004,7 @@
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="82" t="s">
         <v>303</v>
       </c>
@@ -5499,7 +9017,7 @@
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="82" t="s">
         <v>305</v>
       </c>
@@ -5512,20 +9030,20 @@
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
     </row>
-    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="82" t="s">
         <v>307</v>
       </c>
       <c r="B14" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-    </row>
-    <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="209"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+    </row>
+    <row r="15" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="100" t="s">
         <v>192</v>
       </c>
@@ -5534,11 +9052,11 @@
       </c>
       <c r="C15" s="74"/>
       <c r="D15" s="75"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="185"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="212"/>
       <c r="G15" s="77"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="100" t="s">
         <v>309</v>
       </c>
@@ -5547,11 +9065,11 @@
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="75"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="185"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="212"/>
       <c r="G16" s="77"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="100" t="s">
         <v>311</v>
       </c>
@@ -5560,11 +9078,11 @@
       </c>
       <c r="C17" s="74"/>
       <c r="D17" s="75"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="185"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="212"/>
       <c r="G17" s="77"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="100" t="s">
         <v>313</v>
       </c>
@@ -5573,11 +9091,11 @@
       </c>
       <c r="C18" s="74"/>
       <c r="D18" s="75"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="185"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="212"/>
       <c r="G18" s="77"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="100" t="s">
         <v>315</v>
       </c>
@@ -5586,11 +9104,11 @@
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="75"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="185"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="212"/>
       <c r="G19" s="77"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="100" t="s">
         <v>317</v>
       </c>
@@ -5599,11 +9117,11 @@
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="75"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="185"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="212"/>
       <c r="G20" s="77"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="100" t="s">
         <v>319</v>
       </c>
@@ -5612,11 +9130,11 @@
       </c>
       <c r="C21" s="74"/>
       <c r="D21" s="75"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="185"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="212"/>
       <c r="G21" s="77"/>
     </row>
-    <row r="22" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="100" t="s">
         <v>321</v>
       </c>
@@ -5625,11 +9143,11 @@
       </c>
       <c r="C22" s="74"/>
       <c r="D22" s="75"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="187"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="214"/>
       <c r="G22" s="78"/>
     </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="100" t="s">
         <v>323</v>
       </c>
@@ -5638,11 +9156,11 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="80"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="181"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="208"/>
       <c r="G23" s="81"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="100" t="s">
         <v>325</v>
       </c>
@@ -5655,7 +9173,7 @@
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="100" t="s">
         <v>327</v>
       </c>
@@ -5668,33 +9186,33 @@
       <c r="F25" s="62"/>
       <c r="G25" s="76"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="100" t="s">
         <v>329</v>
       </c>
       <c r="B26" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="200"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="201"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="100" t="s">
         <v>331</v>
       </c>
       <c r="B27" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-    </row>
-    <row r="28" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="200"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="201"/>
+    </row>
+    <row r="28" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="102" t="s">
         <v>194</v>
       </c>
@@ -5707,7 +9225,7 @@
       <c r="F28" s="75"/>
       <c r="G28" s="75"/>
     </row>
-    <row r="29" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="102" t="s">
         <v>196</v>
       </c>
@@ -5720,7 +9238,7 @@
       <c r="F29" s="75"/>
       <c r="G29" s="75"/>
     </row>
-    <row r="30" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="104" t="s">
         <v>198</v>
       </c>
@@ -5733,7 +9251,7 @@
       <c r="F30" s="75"/>
       <c r="G30" s="75"/>
     </row>
-    <row r="31" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="82" t="s">
         <v>200</v>
       </c>
@@ -5746,7 +9264,7 @@
       <c r="F31" s="85"/>
       <c r="G31" s="85"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="82" t="s">
         <v>334</v>
       </c>
@@ -5759,7 +9277,7 @@
       <c r="F32" s="75"/>
       <c r="G32" s="75"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82" t="s">
         <v>336</v>
       </c>
@@ -5772,7 +9290,7 @@
       <c r="F33" s="75"/>
       <c r="G33" s="75"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="82" t="s">
         <v>338</v>
       </c>
@@ -5785,7 +9303,7 @@
       <c r="F34" s="75"/>
       <c r="G34" s="75"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="82" t="s">
         <v>340</v>
       </c>
@@ -5798,7 +9316,7 @@
       <c r="F35" s="75"/>
       <c r="G35" s="75"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="82" t="s">
         <v>342</v>
       </c>
@@ -5811,20 +9329,20 @@
       <c r="F36" s="75"/>
       <c r="G36" s="75"/>
     </row>
-    <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="102" t="s">
         <v>204</v>
       </c>
       <c r="B37" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="175"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-    </row>
-    <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="202"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+    </row>
+    <row r="38" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="102" t="s">
         <v>207</v>
       </c>
@@ -5837,7 +9355,7 @@
       <c r="F38" s="58"/>
       <c r="G38" s="58"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="102" t="s">
         <v>208</v>
       </c>
@@ -5850,7 +9368,7 @@
       <c r="F39" s="62"/>
       <c r="G39" s="76"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="102" t="s">
         <v>209</v>
       </c>
@@ -5863,17 +9381,17 @@
       <c r="F40" s="62"/>
       <c r="G40" s="76"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="102" t="s">
         <v>344</v>
       </c>
       <c r="B41" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="177"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="179"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="206"/>
       <c r="G41" s="83"/>
     </row>
   </sheetData>
@@ -5905,7 +9423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -5917,15 +9435,15 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="109" t="s">
         <v>267</v>
       </c>
@@ -5939,7 +9457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
         <v>161</v>
       </c>
@@ -5955,7 +9473,7 @@
         <v>15+</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="112" t="s">
         <v>159</v>
       </c>
@@ -5965,7 +9483,7 @@
       <c r="C3" s="114"/>
       <c r="D3" s="115"/>
     </row>
-    <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="116" t="s">
         <v>157</v>
       </c>
@@ -5975,7 +9493,7 @@
       <c r="C4" s="118"/>
       <c r="D4" s="118"/>
     </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="116" t="s">
         <v>155</v>
       </c>
@@ -5985,7 +9503,7 @@
       <c r="C5" s="119"/>
       <c r="D5" s="119"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="61"/>
     </row>
   </sheetData>
@@ -5998,1581 +9516,4 @@
     <oddFooter xml:space="preserve">&amp;LRevised July 19, 2013 </oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="A1:K88"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="22" customWidth="1"/>
-    <col min="3" max="16384" width="8.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="39" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="49" t="str">
-        <f t="shared" ref="C2:K2" si="0">TRIM(C1)</f>
-        <v>&lt;1</v>
-      </c>
-      <c r="D2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>1 to 4</v>
-      </c>
-      <c r="E2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>5 to 9</v>
-      </c>
-      <c r="F2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>10 to 14</v>
-      </c>
-      <c r="G2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>15 to 19</v>
-      </c>
-      <c r="H2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>20 to 24</v>
-      </c>
-      <c r="I2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>25 to 49</v>
-      </c>
-      <c r="J2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>50+</v>
-      </c>
-      <c r="K2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" s="39" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-    </row>
-    <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:11" s="43" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-    </row>
-    <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>352</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>353</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-    </row>
-    <row r="18" spans="1:10" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="47"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="47"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="47"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader xml:space="preserve">&amp;CZAMBIA DEFENCE FORCE MEDICAL SERVICES 
-HIV/AIDS Monthly Activity Report Form </oddHeader>
-    <oddFooter>&amp;LRevised November 2014</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:P20"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C4" sqref="C4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" sqref="A1:B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="34.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="5" customWidth="1"/>
-    <col min="8" max="9" width="8.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="122" t="s">
-        <v>359</v>
-      </c>
-      <c r="C1" s="120" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1" s="120" t="s">
-        <v>356</v>
-      </c>
-      <c r="E1" s="120" t="s">
-        <v>357</v>
-      </c>
-      <c r="F1" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="120" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="120" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-    </row>
-    <row r="2" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="124" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="49" t="str">
-        <f t="shared" ref="C2:K2" si="0">TRIM(C1)</f>
-        <v>&lt; 1</v>
-      </c>
-      <c r="D2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>1-4</v>
-      </c>
-      <c r="E2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>5-9</v>
-      </c>
-      <c r="F2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>10-14</v>
-      </c>
-      <c r="G2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>15-19</v>
-      </c>
-      <c r="H2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>20-24</v>
-      </c>
-      <c r="I2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>25-29</v>
-      </c>
-      <c r="J2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>30-49</v>
-      </c>
-      <c r="K2" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>50+</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="124" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
-        <v>363</v>
-      </c>
-      <c r="B4" s="124" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="123" t="s">
-        <v>365</v>
-      </c>
-      <c r="B5" s="124" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-    </row>
-    <row r="6" spans="1:16" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="123" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="124" t="s">
-        <v>367</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7" s="124" t="s">
-        <v>369</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="s">
-        <v>370</v>
-      </c>
-      <c r="B8" s="124" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="123" t="s">
-        <v>372</v>
-      </c>
-      <c r="B9" s="124" t="s">
-        <v>373</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" s="124" t="s">
-        <v>375</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="123" t="s">
-        <v>376</v>
-      </c>
-      <c r="B11" s="124" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="123" t="s">
-        <v>378</v>
-      </c>
-      <c r="B12" s="124" t="s">
-        <v>379</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="124" t="s">
-        <v>380</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="123" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" s="124" t="s">
-        <v>382</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-    </row>
-    <row r="15" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="123" t="s">
-        <v>383</v>
-      </c>
-      <c r="B15" s="124" t="s">
-        <v>384</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="124" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="1:2" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123" t="s">
-        <v>386</v>
-      </c>
-      <c r="B17" s="124" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
-        <v>388</v>
-      </c>
-      <c r="B18" s="124" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="124" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="123" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader xml:space="preserve">&amp;CZAMBIA DEFENCE FORCE MEDICAL SERVICES 
-HIV/AIDS Monthly Activity Report Form </oddHeader>
-    <oddFooter>&amp;LRevised November 2014</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>